--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Qty</t>
   </si>
@@ -55,6 +55,9 @@
     <t>R3</t>
   </si>
   <si>
+    <t>R5</t>
+  </si>
+  <si>
     <t>IR LED</t>
   </si>
   <si>
@@ -82,13 +85,16 @@
     <t>PT26-21C/TR8</t>
   </si>
   <si>
-    <t>330Ω</t>
+    <t>200Ω</t>
   </si>
   <si>
     <t>10KΩ</t>
   </si>
   <si>
     <t>82Ω</t>
+  </si>
+  <si>
+    <t>20KΩ</t>
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=1080-1357-1-ND</t>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -528,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -545,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -562,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -579,13 +585,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -596,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -613,13 +619,30 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -631,6 +654,7 @@
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -55,7 +55,7 @@
     <t>R3</t>
   </si>
   <si>
-    <t>R5</t>
+    <t>R4</t>
   </si>
   <si>
     <t>IR LED</t>
@@ -88,12 +88,12 @@
     <t>200Ω</t>
   </si>
   <si>
+    <t>82Ω</t>
+  </si>
+  <si>
     <t>10KΩ</t>
   </si>
   <si>
-    <t>82Ω</t>
-  </si>
-  <si>
     <t>20KΩ</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>https://www.digikey.com/products/en?keywords=P330HCT-ND</t>
   </si>
   <si>
+    <t>https://www.digikey.com/products/en?keywords=311-82.0HRCT-ND</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/RC0603JR-0710KL/311-10KGRCT-ND/729647/?itemSeq=322900504</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=311-82.0HRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
